--- a/Perdita Annuale.xlsx
+++ b/Perdita Annuale.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aless\Documents\GitHub\Perdita-Annuale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721784A4-FEE2-4A95-86DA-5FCDF0F8596A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B65D2D4-0B22-412A-8C21-A43088EAFA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6100AE03-D69F-49CC-B5EB-4EF7201DD429}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Edificio Primario</t>
   </si>
@@ -62,22 +62,25 @@
     <t>Inondazione</t>
   </si>
   <si>
-    <t>ARO Terremoto</t>
-  </si>
-  <si>
-    <t>ARO Incendio</t>
-  </si>
-  <si>
-    <t>ARO Inondazione</t>
-  </si>
-  <si>
-    <t>Perdita Annuale in Caso di Terremoto</t>
-  </si>
-  <si>
-    <t>Perdita Annuale in Caso di Incendio</t>
-  </si>
-  <si>
-    <t>Perdita Annuale in Caso di Inondazione</t>
+    <t>ARO Terremoto 1/</t>
+  </si>
+  <si>
+    <t>ARO Incendio 1/</t>
+  </si>
+  <si>
+    <t>ARO Inondazione 1/</t>
+  </si>
+  <si>
+    <t>ALE Terremoto</t>
+  </si>
+  <si>
+    <t>ALE Incendio</t>
+  </si>
+  <si>
+    <t>ALE Inondazione</t>
+  </si>
+  <si>
+    <t>SLE Terremoto</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -160,6 +163,7 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A43E4D6-B9E2-47CA-9710-492CCD1C19FD}">
-  <dimension ref="B2:L6"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,15 +512,16 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -541,17 +546,20 @@
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,19 +585,23 @@
         <v>50</v>
       </c>
       <c r="J3" s="6">
+        <f>C3*D3</f>
+        <v>280000</v>
+      </c>
+      <c r="K3" s="10">
         <f>C3*D3/G3</f>
         <v>9333.3333333333339</v>
       </c>
-      <c r="K3" s="6">
+      <c r="L3" s="10">
         <f>C3*E3/H3</f>
         <v>10500</v>
       </c>
-      <c r="L3" s="6">
+      <c r="M3" s="10">
         <f>C3*F3/I3</f>
         <v>3850.0000000000005</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,19 +627,23 @@
         <v>50</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" ref="J4:J5" si="0">C4*D4/G4</f>
+        <f t="shared" ref="J4:J5" si="0">C4*D4</f>
+        <v>120000</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K5" si="1">C4*D4/G4</f>
         <v>4000</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K5" si="1">C4*E4/H4</f>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L5" si="2">C4*E4/H4</f>
         <v>3750</v>
       </c>
-      <c r="L4" s="6">
-        <f t="shared" ref="L4:L5" si="2">C4*F4/I4</f>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M5" si="3">C4*F4/I4</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -654,18 +670,22 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
         <v>3166.6666666666665</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" si="1"/>
+      <c r="L5" s="10">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="L5" s="6">
-        <f t="shared" si="2"/>
+      <c r="M5" s="10">
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C6" s="9"/>
     </row>
   </sheetData>
